--- a/Data Science/Advance Excel/Lab 4/Book1.xlsx
+++ b/Data Science/Advance Excel/Lab 4/Book1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github repository\Lab-Record\Data Science\Advance Excel\Lab 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C7734B-B27A-4C94-A3B1-CA8BFDC8D1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF74BB03-3D2F-4A9F-8C2F-B9D869A992D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BE3CC9C0-D63E-4CD0-90DF-B3C0F5F217C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BE3CC9C0-D63E-4CD0-90DF-B3C0F5F217C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hlookup" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -162,6 +163,9 @@
   </si>
   <si>
     <t>COUNTIFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject </t>
   </si>
 </sst>
 </file>
@@ -171,7 +175,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,28 +197,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -222,12 +220,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -238,6 +251,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -598,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A6BAF9-AA91-4C4E-9222-785A613982C1}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
@@ -920,4 +939,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB2A5AB-2556-4F91-973D-25B21C6064A6}">
+  <dimension ref="C5:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <f>HLOOKUP(Hlookup!$E$5,Sheet1!$A$1:$F$10,2)</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <f>HLOOKUP(Hlookup!$E$5,Sheet1!$A$1:$F$10,3)</f>
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="str">
+        <f>HLOOKUP(Hlookup!$E$5,Sheet1!$A$1:$F$10,1)</f>
+        <v>Amount</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <f>HLOOKUP(Hlookup!$E$5,Sheet1!$A$1:$F$10,2)</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <f>HLOOKUP(Hlookup!$E$5,Sheet1!$A$1:$F$10,2)</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <f>HLOOKUP(Hlookup!$E$5,Sheet1!$A$1:$F$10,2)</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <f>HLOOKUP(Hlookup!$E$5,Sheet1!$A$1:$F$10,2)</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <f>HLOOKUP(Hlookup!$E$5,Sheet1!$A$1:$F$10,2)</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <f>HLOOKUP(Hlookup!$E$5,Sheet1!$A$1:$F$10,2)</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <f>HLOOKUP(Hlookup!$E$5,Sheet1!$A$1:$F$10,2)</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <f>HLOOKUP(Hlookup!$E$5,Sheet1!$A$1:$F$10,2)</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <f>HLOOKUP(Hlookup!$E$5,Sheet1!$A$1:$F$10,2)</f>
+        <v>12000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data Science/Advance Excel/Lab 4/Book1.xlsx
+++ b/Data Science/Advance Excel/Lab 4/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github repository\Lab-Record\Data Science\Advance Excel\Lab 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF74BB03-3D2F-4A9F-8C2F-B9D869A992D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6034BE5A-CDD6-4D8D-9DE3-9038F139BA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BE3CC9C0-D63E-4CD0-90DF-B3C0F5F217C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BE3CC9C0-D63E-4CD0-90DF-B3C0F5F217C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A6BAF9-AA91-4C4E-9222-785A613982C1}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,7 +945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB2A5AB-2556-4F91-973D-25B21C6064A6}">
   <dimension ref="C5:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
